--- a/Results9.xlsx
+++ b/Results9.xlsx
@@ -465,7 +465,7 @@
         <v>105</v>
       </c>
       <c r="E2">
-        <v>22.01748180389404</v>
+        <v>30.72333288192749</v>
       </c>
       <c r="F2">
         <v>36</v>
